--- a/Assets/_Excel/level.xlsx
+++ b/Assets/_Excel/level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Card\Card-game_test\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC877030-5992-410A-99E3-C56ECDC7E853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3FB92A-5EE0-4389-890D-9AA956309B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1670" yWindow="2890" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="3690" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,14 +51,13 @@
     <t>10001=10002=10003</t>
   </si>
   <si>
-    <t>2040,852,1728=2040,448,172</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1616,646,1728=2040,852,1728=2040,448,1728</t>
   </si>
   <si>
     <t>1616,646,1728</t>
+  </si>
+  <si>
+    <t>2040,852,1728=2040,448,1728</t>
   </si>
 </sst>
 </file>
@@ -438,7 +437,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -486,7 +485,7 @@
         <v>10001</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -500,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -514,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_Excel/level.xlsx
+++ b/Assets/_Excel/level.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Card\Card-game_test\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Cards\Card-game-demo\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3FB92A-5EE0-4389-890D-9AA956309B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6539807E-BB26-4462-B0F4-78B273B3F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="3690" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="3420" windowWidth="27525" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>2040,852,1728=2040,448,1728</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>bossID</t>
   </si>
 </sst>
 </file>
@@ -132,7 +138,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,19 +440,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +465,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +482,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -487,8 +499,11 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="1">
+        <v>20001</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E4">
+        <v>20001</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -514,6 +532,9 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E5">
+        <v>20001</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -543,7 +564,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_Excel/level.xlsx
+++ b/Assets/_Excel/level.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Cards\Card-game-demo\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Card\Card-game_test\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6539807E-BB26-4462-B0F4-78B273B3F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FF9D42-2A05-4939-983A-01638C586674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="3420" windowWidth="27525" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="4150" windowWidth="18850" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>bossID</t>
+  </si>
+  <si>
+    <t>BossPos</t>
+  </si>
+  <si>
+    <t>Boss Position</t>
+  </si>
+  <si>
+    <t>1212,1039,266</t>
   </si>
 </sst>
 </file>
@@ -123,7 +132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,9 +145,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,19 +452,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +480,11 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +500,11 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -502,8 +520,11 @@
       <c r="E3" s="1">
         <v>20001</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -519,8 +540,11 @@
       <c r="E4">
         <v>20001</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -535,6 +559,9 @@
       </c>
       <c r="E5">
         <v>20001</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -550,7 +577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -564,7 +591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_Excel/level.xlsx
+++ b/Assets/_Excel/level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Card\Card-game_test\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FF9D42-2A05-4939-983A-01638C586674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82629740-F754-4F9C-9764-AF67A73FDD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="4150" windowWidth="18850" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="3090" windowWidth="18850" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -51,15 +51,6 @@
     <t>10001=10002=10003</t>
   </si>
   <si>
-    <t>1616,646,1728=2040,852,1728=2040,448,1728</t>
-  </si>
-  <si>
-    <t>1616,646,1728</t>
-  </si>
-  <si>
-    <t>2040,852,1728=2040,448,1728</t>
-  </si>
-  <si>
     <t>Boss</t>
   </si>
   <si>
@@ -73,6 +64,30 @@
   </si>
   <si>
     <t>1212,1039,266</t>
+  </si>
+  <si>
+    <t>1616,646,500</t>
+  </si>
+  <si>
+    <t>2040,852,500=2040,448,500</t>
+  </si>
+  <si>
+    <t>1616,646,500=2090,852,500=2100,358,500</t>
+  </si>
+  <si>
+    <t>Boss2</t>
+  </si>
+  <si>
+    <t>boss2ID</t>
+  </si>
+  <si>
+    <t>Boss2Position</t>
+  </si>
+  <si>
+    <t>2040,687,583</t>
+  </si>
+  <si>
+    <t>BossPos2</t>
   </si>
 </sst>
 </file>
@@ -452,19 +467,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,13 +495,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,13 +521,19 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -515,16 +544,22 @@
         <v>10001</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>20001</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20002</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -535,16 +570,22 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>20001</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>20002</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -555,13 +596,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>20001</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>20002</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
